--- a/stock_historical_data/1wk/TATAINVEST.NS.xlsx
+++ b/stock_historical_data/1wk/TATAINVEST.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAINVEST.NS.xlsx
+++ b/stock_historical_data/1wk/TATAINVEST.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAINVEST.NS.xlsx
+++ b/stock_historical_data/1wk/TATAINVEST.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83689,6 +83689,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>6731</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>7038.14990234375</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>6566.39990234375</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>6657.14990234375</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>6629.45703125</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>285676</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>6984.64990234375</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>6450</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>6474.7001953125</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>6474.7001953125</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>214317</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TATAINVEST.NS.xlsx
+++ b/stock_historical_data/1wk/TATAINVEST.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83733,7 +83733,7 @@
         <v>25</v>
       </c>
       <c r="O1487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1487" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,1829 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>6760.64990234375</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>6525</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>6559.39990234375</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>189371</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>6560.9501953125</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>6801.2998046875</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>6381</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>6517.9501953125</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>144656</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>6602.85009765625</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>6663.9501953125</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>6300</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>6311.89990234375</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>96692</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>6310</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>6467</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>6343.9501953125</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>109199</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>6366.0498046875</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>6436.2001953125</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>6201.0498046875</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>6215.7998046875</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>95960</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>5975</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>6029</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>94046</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>6024.9501953125</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>6108.75</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>5850.10009765625</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>6027.2001953125</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>59010</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>6099.89990234375</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>6025</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>6160.10009765625</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>99354</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>6161.25</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>8074.25</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>6118.0498046875</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>7283.39990234375</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>3427118</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>7349</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>7472.7001953125</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>7080</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>7132.5498046875</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>440316</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>7179.7001953125</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>7274.39990234375</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>6925</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>7026.5498046875</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>263586</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>7065</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>7070</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>6570</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>6735.14990234375</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>182345</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>6801.9501953125</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>7244</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>6745.35009765625</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>6841.4501953125</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>388713</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>6869</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>6869</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>6550.60009765625</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>6631.4501953125</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>96648</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>6640</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>7545</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>6351.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>7048.2998046875</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>1688091</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>7070</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>7140</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>6702</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>6816.2998046875</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>291664</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>7074.9501953125</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>7465.10009765625</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>6453.7998046875</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>6524.39990234375</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>782479</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>6610</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>6949.9501953125</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>6468</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>6886.2001953125</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>192163</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>6840</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>6934.4501953125</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>6767.25</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>205365</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>6750</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>7140</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>6536.0498046875</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>6611.2001953125</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>268854</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>6640</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>6854.35009765625</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>6485</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>6492.2001953125</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>151113</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>6750</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>6570</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>6643</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>113203</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>6649.9501953125</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>7079</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>6611.0498046875</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>6894.39990234375</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>308797</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>6926.7998046875</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>7328</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>6767</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>6874.85009765625</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>441367</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>6850.10009765625</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>6920.7998046875</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>6510</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>6541.25</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>142000</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>6585</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>7411</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>6491</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>6831.2998046875</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>2549549</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>6870</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>7047</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>6708.5498046875</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>6890.2998046875</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>325006</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>6899.2001953125</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>6907.5</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>6366.4501953125</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>6401.2998046875</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>183124</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>6401.25</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>6486.0498046875</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>6323.10009765625</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>172938</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>6384</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>6384</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>6071</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>6114.89990234375</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>122287</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>6020.0498046875</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>6072.4501953125</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>5621.14990234375</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>6025.35009765625</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>169975</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>6011.75</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>6161</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>5860.10009765625</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>5899.75</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>73965</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>5900.75</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>5917.0498046875</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>5293.85009765625</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>185667</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>5211</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>6507.4501953125</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>5145.14990234375</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>5941.14990234375</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>1759578</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>5942</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>6344</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>5705.2001953125</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>6065.4501953125</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>1791764</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TATAINVEST.NS.xlsx
+++ b/stock_historical_data/1wk/TATAINVEST.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1523"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83851,7 +83851,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83903,7 +83905,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83955,7 +83959,9 @@
       <c r="Q1491" t="n">
         <v>1</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84007,7 +84013,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84059,7 +84067,9 @@
       <c r="Q1493" t="n">
         <v>2</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84111,7 +84121,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84163,7 +84175,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84215,7 +84229,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84267,7 +84283,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84319,7 +84337,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84371,7 +84391,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84423,7 +84445,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84475,7 +84499,9 @@
       <c r="Q1501" t="n">
         <v>1</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84527,7 +84553,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84579,7 +84607,9 @@
       <c r="Q1503" t="n">
         <v>2</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84631,7 +84661,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84683,7 +84715,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84735,7 +84769,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84787,7 +84823,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84839,7 +84877,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84891,7 +84931,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84943,7 +84985,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -84995,7 +85039,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85047,7 +85093,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85099,7 +85147,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85151,7 +85201,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85203,7 +85255,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85255,7 +85309,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85307,7 +85363,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85359,7 +85417,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85411,7 +85471,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85463,7 +85525,9 @@
       <c r="Q1520" t="n">
         <v>2</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85515,7 +85579,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85559,7 +85625,7 @@
         <v>8</v>
       </c>
       <c r="O1522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1522" t="n">
         <v>0</v>
@@ -85567,7 +85633,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85619,7 +85687,217 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>6159.2998046875</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>6642.89990234375</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>5811</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>6384.7998046875</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>1062001</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>6384.14990234375</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>6480</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>6058.64990234375</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>6107.5</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>256260</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>6109.39990234375</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>6474</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>6085.2998046875</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>6433.85009765625</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>251606</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>6467.2998046875</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>6578.9501953125</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>6206.2998046875</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>6317.7001953125</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>278196</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
